--- a/outputs/COGS.xlsx
+++ b/outputs/COGS.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="60" formatCode="0.####"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="1">
@@ -65,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +406,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
@@ -464,12 +466,12 @@
         <v>Auto Cup Holder Coaster</v>
       </c>
       <c r="B2" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>(906.01+46.5)/860*2/6.759</f>
         <v>0.32773184419051943</v>
       </c>
@@ -479,17 +481,17 @@
       <c r="F2">
         <v/>
       </c>
-      <c r="G2">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.3613</v>
       </c>
       <c r="I2">
         <v/>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f>SUM(D2:I2)</f>
         <v>0.854</v>
       </c>
@@ -497,11 +499,11 @@
         <f>SUM(C2:C12)</f>
         <v>502</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f>J2*C2</f>
         <v>8.54</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>SUM(L2:L12)</f>
         <v>3388.1184</v>
       </c>
@@ -511,12 +513,12 @@
         <v>Auto Seat Headrest Hook</v>
       </c>
       <c r="B3" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>(406.98+40)/2040*4/6.759</f>
         <v>0.12966879309794638</v>
       </c>
@@ -526,24 +528,24 @@
       <c r="F3">
         <v/>
       </c>
-      <c r="G3">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.3613</v>
       </c>
       <c r="I3">
         <v/>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>SUM(D3:I3)</f>
         <v>0.656</v>
       </c>
       <c r="K3">
         <v/>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f>J3*C3</f>
         <v>6.56</v>
       </c>
@@ -556,12 +558,12 @@
         <v>Auto Sunglass Holder</v>
       </c>
       <c r="B4" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>(145+8)/10*1/6.759</f>
         <v>2.263648468708389</v>
       </c>
@@ -571,24 +573,24 @@
       <c r="F4">
         <v/>
       </c>
-      <c r="G4">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.3613</v>
       </c>
       <c r="I4">
         <v/>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>SUM(D4:I4)</f>
         <v>2.7899</v>
       </c>
       <c r="K4">
         <v/>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f>J4*C4</f>
         <v>27.899</v>
       </c>
@@ -601,12 +603,12 @@
         <v>Auto Tissue Holder</v>
       </c>
       <c r="B5" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>65/10*1/6.759</f>
         <v>0.9616807220002959</v>
       </c>
@@ -616,24 +618,24 @@
       <c r="F5">
         <v/>
       </c>
-      <c r="G5">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.3613</v>
       </c>
       <c r="I5">
         <v/>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f>SUM(D5:I5)</f>
         <v>1.488</v>
       </c>
       <c r="K5">
         <v/>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f>J5*C5</f>
         <v>14.88</v>
       </c>
@@ -646,12 +648,12 @@
         <v>Auto seat belt shoulder protection</v>
       </c>
       <c r="B6" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>3010/860*2/6.759</f>
         <v>1.0356561621541647</v>
       </c>
@@ -661,24 +663,24 @@
       <c r="F6">
         <v/>
       </c>
-      <c r="G6">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.3613</v>
       </c>
       <c r="I6">
         <v/>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f>SUM(D6:I6)</f>
         <v>1.5619</v>
       </c>
       <c r="K6">
         <v/>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f>J6*C6</f>
         <v>15.619</v>
       </c>
@@ -691,40 +693,40 @@
         <v>Auto-Bag-Leather-Black</v>
       </c>
       <c r="B7" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>(420/20*1+(406.98+40)/2040*4)/6.759</f>
         <v>3.236637279560441</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>6/6.759</f>
         <v>0.8877052818464269</v>
       </c>
       <c r="F7">
         <v/>
       </c>
-      <c r="G7">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.3613</v>
       </c>
       <c r="I7">
         <v/>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f>SUM(D7:I7)</f>
         <v>4.6506</v>
       </c>
       <c r="K7">
         <v/>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f>J7*C7</f>
         <v>74.4096</v>
       </c>
@@ -737,40 +739,40 @@
         <v>Auto-Bag-Leather-Grey</v>
       </c>
       <c r="B8" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C8">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>(420/20*1+(406.98+40)/2040*4)/6.759</f>
         <v>3.236637279560441</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>6/6.759</f>
         <v>0.8877052818464269</v>
       </c>
       <c r="F8">
         <v/>
       </c>
-      <c r="G8">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.3613</v>
       </c>
       <c r="I8">
         <v/>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <f>SUM(D8:I8)</f>
         <v>4.6506</v>
       </c>
       <c r="K8">
         <v/>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f>J8*C8</f>
         <v>74.4096</v>
       </c>
@@ -783,40 +785,40 @@
         <v>Auto-Bag-Suede-Black</v>
       </c>
       <c r="B9" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>(8320/260*1+(406.98+40)/2040*4)/6.759</f>
         <v>4.864096962945556</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>6/6.759</f>
         <v>0.8877052818464269</v>
       </c>
       <c r="F9">
         <v/>
       </c>
-      <c r="G9">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.3613</v>
       </c>
       <c r="I9">
         <v/>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f>SUM(D9:I9)</f>
         <v>6.2781</v>
       </c>
       <c r="K9">
         <v/>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f>J9*C9</f>
         <v>100.4496</v>
       </c>
@@ -829,40 +831,40 @@
         <v>Auto-Bag-Suede-Black-Set</v>
       </c>
       <c r="B10" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C10">
         <v>208</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f>(8320/260*1+3010/860*2+(906.01+46.5)/860*2+(406.98+40)/2040*4)/6.759</f>
         <v>6.22748496929024</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>6/6.759</f>
         <v>0.8877052818464269</v>
       </c>
       <c r="F10">
         <v/>
       </c>
-      <c r="G10">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.3613</v>
       </c>
       <c r="I10">
         <v/>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <f>SUM(D10:I10)</f>
         <v>7.6415</v>
       </c>
       <c r="K10">
         <v/>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <f>J10*C10</f>
         <v>1589.432</v>
       </c>
@@ -875,40 +877,40 @@
         <v>Auto-Bag-Suede-Grey</v>
       </c>
       <c r="B11" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>(6400/200*1+(406.98+40)/2040*4)/6.759</f>
         <v>4.864096962945556</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>6/6.759</f>
         <v>0.8877052818464269</v>
       </c>
       <c r="F11">
         <v/>
       </c>
-      <c r="G11">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.3613</v>
       </c>
       <c r="I11">
         <v/>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <f>SUM(D11:I11)</f>
         <v>6.2781</v>
       </c>
       <c r="K11">
         <v/>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <f>J11*C11</f>
         <v>100.4496</v>
       </c>
@@ -921,40 +923,40 @@
         <v>Auto-Bag-Suede-Grey-Set</v>
       </c>
       <c r="B12" t="str">
-        <v>FBA176X1FK4S</v>
+        <v>FBA176X1FK4S_x000d_</v>
       </c>
       <c r="C12">
         <v>180</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>(6400/200*1+3010/860*2+(906.01+46.5)/860*2+(406.98+40)/2040*4)/6.759</f>
         <v>6.22748496929024</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f>6/6.759</f>
         <v>0.8877052818464269</v>
       </c>
       <c r="F12">
         <v/>
       </c>
-      <c r="G12">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="1">
+        <f>560/6.759/502</f>
+        <v>0.165</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.3613</v>
       </c>
       <c r="I12">
         <v/>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <f>SUM(D12:I12)</f>
         <v>7.6415</v>
       </c>
       <c r="K12">
         <v/>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <f>J12*C12</f>
         <v>1375.47</v>
       </c>

--- a/outputs/COGS.xlsx
+++ b/outputs/COGS.xlsx
@@ -400,14 +400,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" customWidth="1"/>
@@ -466,7 +466,7 @@
         <v>Auto Cup Holder Coaster</v>
       </c>
       <c r="B2" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -482,18 +482,20 @@
         <v/>
       </c>
       <c r="G2" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I2">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I2" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J2" s="1">
         <f>SUM(D2:I2)</f>
-        <v>0.854</v>
+        <v>1.5838</v>
       </c>
       <c r="K2">
         <f>SUM(C2:C12)</f>
@@ -501,11 +503,11 @@
       </c>
       <c r="L2" s="1">
         <f>J2*C2</f>
-        <v>8.54</v>
+        <v>15.838</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(L2:L12)</f>
-        <v>3388.1184</v>
+        <v>3754.434</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +515,7 @@
         <v>Auto Seat Headrest Hook</v>
       </c>
       <c r="B3" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -529,25 +531,27 @@
         <v/>
       </c>
       <c r="G3" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H3" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I3">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I3" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J3" s="1">
         <f>SUM(D3:I3)</f>
-        <v>0.656</v>
+        <v>1.3857</v>
       </c>
       <c r="K3">
         <v/>
       </c>
       <c r="L3" s="1">
         <f>J3*C3</f>
-        <v>6.56</v>
+        <v>13.857</v>
       </c>
       <c r="M3">
         <v/>
@@ -558,7 +562,7 @@
         <v>Auto Sunglass Holder</v>
       </c>
       <c r="B4" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -574,25 +578,27 @@
         <v/>
       </c>
       <c r="G4" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H4" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I4">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I4" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J4" s="1">
         <f>SUM(D4:I4)</f>
-        <v>2.7899</v>
+        <v>3.5197</v>
       </c>
       <c r="K4">
         <v/>
       </c>
       <c r="L4" s="1">
         <f>J4*C4</f>
-        <v>27.899</v>
+        <v>35.197</v>
       </c>
       <c r="M4">
         <v/>
@@ -603,7 +609,7 @@
         <v>Auto Tissue Holder</v>
       </c>
       <c r="B5" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -619,25 +625,27 @@
         <v/>
       </c>
       <c r="G5" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H5" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I5">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I5" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J5" s="1">
         <f>SUM(D5:I5)</f>
-        <v>1.488</v>
+        <v>2.2177</v>
       </c>
       <c r="K5">
         <v/>
       </c>
       <c r="L5" s="1">
         <f>J5*C5</f>
-        <v>14.88</v>
+        <v>22.177</v>
       </c>
       <c r="M5">
         <v/>
@@ -648,7 +656,7 @@
         <v>Auto seat belt shoulder protection</v>
       </c>
       <c r="B6" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -664,25 +672,27 @@
         <v/>
       </c>
       <c r="G6" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H6" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I6">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I6" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(D6:I6)</f>
-        <v>1.5619</v>
+        <v>2.2917</v>
       </c>
       <c r="K6">
         <v/>
       </c>
       <c r="L6" s="1">
         <f>J6*C6</f>
-        <v>15.619</v>
+        <v>22.917</v>
       </c>
       <c r="M6">
         <v/>
@@ -693,7 +703,7 @@
         <v>Auto-Bag-Leather-Black</v>
       </c>
       <c r="B7" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -710,25 +720,27 @@
         <v/>
       </c>
       <c r="G7" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H7" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I7">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I7" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J7" s="1">
         <f>SUM(D7:I7)</f>
-        <v>4.6506</v>
+        <v>5.3804</v>
       </c>
       <c r="K7">
         <v/>
       </c>
       <c r="L7" s="1">
         <f>J7*C7</f>
-        <v>74.4096</v>
+        <v>86.0864</v>
       </c>
       <c r="M7">
         <v/>
@@ -739,7 +751,7 @@
         <v>Auto-Bag-Leather-Grey</v>
       </c>
       <c r="B8" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -756,25 +768,27 @@
         <v/>
       </c>
       <c r="G8" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H8" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I8">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I8" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J8" s="1">
         <f>SUM(D8:I8)</f>
-        <v>4.6506</v>
+        <v>5.3804</v>
       </c>
       <c r="K8">
         <v/>
       </c>
       <c r="L8" s="1">
         <f>J8*C8</f>
-        <v>74.4096</v>
+        <v>86.0864</v>
       </c>
       <c r="M8">
         <v/>
@@ -785,7 +799,7 @@
         <v>Auto-Bag-Suede-Black</v>
       </c>
       <c r="B9" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -802,25 +816,27 @@
         <v/>
       </c>
       <c r="G9" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H9" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I9">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I9" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J9" s="1">
         <f>SUM(D9:I9)</f>
-        <v>6.2781</v>
+        <v>7.0078</v>
       </c>
       <c r="K9">
         <v/>
       </c>
       <c r="L9" s="1">
         <f>J9*C9</f>
-        <v>100.4496</v>
+        <v>112.1248</v>
       </c>
       <c r="M9">
         <v/>
@@ -831,7 +847,7 @@
         <v>Auto-Bag-Suede-Black-Set</v>
       </c>
       <c r="B10" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C10">
         <v>208</v>
@@ -848,25 +864,27 @@
         <v/>
       </c>
       <c r="G10" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H10" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I10">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I10" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J10" s="1">
         <f>SUM(D10:I10)</f>
-        <v>7.6415</v>
+        <v>8.3712</v>
       </c>
       <c r="K10">
         <v/>
       </c>
       <c r="L10" s="1">
         <f>J10*C10</f>
-        <v>1589.432</v>
+        <v>1741.2096</v>
       </c>
       <c r="M10">
         <v/>
@@ -877,7 +895,7 @@
         <v>Auto-Bag-Suede-Grey</v>
       </c>
       <c r="B11" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -894,25 +912,27 @@
         <v/>
       </c>
       <c r="G11" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H11" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I11">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I11" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J11" s="1">
         <f>SUM(D11:I11)</f>
-        <v>6.2781</v>
+        <v>7.0078</v>
       </c>
       <c r="K11">
         <v/>
       </c>
       <c r="L11" s="1">
         <f>J11*C11</f>
-        <v>100.4496</v>
+        <v>112.1248</v>
       </c>
       <c r="M11">
         <v/>
@@ -923,7 +943,7 @@
         <v>Auto-Bag-Suede-Grey-Set</v>
       </c>
       <c r="B12" t="str">
-        <v>FBA176X1FK4S_x000d_</v>
+        <v>FBA176X1FK4S</v>
       </c>
       <c r="C12">
         <v>180</v>
@@ -940,33 +960,77 @@
         <v/>
       </c>
       <c r="G12" s="1">
-        <f>560/6.759/502</f>
-        <v>0.165</v>
+        <f>(560/6.759+12)/502</f>
+        <v>0.1889</v>
       </c>
       <c r="H12" s="1">
-        <v>0.3613</v>
-      </c>
-      <c r="I12">
-        <v/>
+        <f>535.7/502</f>
+        <v>1.0671314741035858</v>
+      </c>
+      <c r="I12" s="1">
+        <f>7.572727273/502</f>
+        <v>0.015085114089641433</v>
       </c>
       <c r="J12" s="1">
         <f>SUM(D12:I12)</f>
-        <v>7.6415</v>
+        <v>8.3712</v>
       </c>
       <c r="K12">
         <v/>
       </c>
       <c r="L12" s="1">
         <f>J12*C12</f>
-        <v>1375.47</v>
+        <v>1506.816</v>
       </c>
       <c r="M12">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM(I2*C2+I3*C3+I4*C4+I5*C5+I6*C6+I7*C7+I8*C8+I9*C9+I10*C10+I11*C11+I12*C12)</f>
+        <v>0.5034630340030753</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M14"/>
   </ignoredErrors>
 </worksheet>
 </file>